--- a/1. DOKUMENTY BUDŻETOWE/Zmiana budżetowa_WPF/Zmiana budżetowa - polisa 2.xlsx
+++ b/1. DOKUMENTY BUDŻETOWE/Zmiana budżetowa_WPF/Zmiana budżetowa - polisa 2.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BIURO\3. URBACT\1. DOKUMENTY BUDŻETOWE\Zmiana budżetowa_WPF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Urbact\1. DOKUMENTY BUDŻETOWE\Zmiana budżetowa_WPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091E4651-688B-4CDB-A56A-BFF278C38744}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet!$A$1:$F$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet!$A$1:$F$20</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Zestawienie zmian wydatków</t>
   </si>
@@ -72,14 +71,23 @@
     <t xml:space="preserve">4309 Zakup usług pozostałych </t>
   </si>
   <si>
-    <t xml:space="preserve">UZASADNIENIE
-Zmiana budżetowa wynika z konieczności rozliczenia kosztów przelotów w ramach Tech Revolution 2.0 z paragrafu "Zakup usług pozostałych"  </t>
+    <t xml:space="preserve">4438 Różne opłaty i składki </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4439 Różne opłaty i składki </t>
+  </si>
+  <si>
+    <t>UZASADNIENIE
+Zmiana budżetowa wynika z aktualizacji budżetu projektu Tech Revolution 2.0 po przeanalizowaniu wydatków związanych z działaniami w projekcie</t>
+  </si>
+  <si>
+    <t>4219 koszty biurowe i administracyjne</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -174,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -256,11 +264,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -289,6 +321,30 @@
     <xf numFmtId="4" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -301,25 +357,10 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -601,11 +642,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="A6:F15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,14 +660,14 @@
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="1"/>
       <c r="H2" s="2"/>
     </row>
@@ -641,22 +682,22 @@
       <c r="H3" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
@@ -665,160 +706,215 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="7">
-        <v>32000</v>
+        <v>28600</v>
       </c>
       <c r="F7" s="7">
-        <v>3200</v>
+        <v>28600</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="8">
-        <v>32000</v>
+        <v>28600</v>
       </c>
       <c r="F8" s="8">
-        <v>32000</v>
+        <v>28600</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="10">
-        <v>32000</v>
+        <v>28600</v>
       </c>
       <c r="F9" s="10">
-        <v>32000</v>
+        <v>28600</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="22"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="11">
-        <v>27200</v>
+        <v>24310</v>
       </c>
       <c r="F10" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="22"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="11">
-        <v>4800</v>
+        <v>4290</v>
       </c>
       <c r="F11" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="22"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="11">
         <v>0</v>
       </c>
       <c r="F12" s="11">
-        <v>27200</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="22"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="11">
-        <f t="shared" ref="E13" si="0">E16</f>
+        <f t="shared" ref="E13" si="0">E19</f>
         <v>0</v>
       </c>
       <c r="F13" s="11">
-        <v>4800</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="11">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="11">
+        <f t="shared" ref="E15" si="1">E19</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="11">
+        <v>0</v>
+      </c>
+      <c r="F16" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="7">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="7">
         <f>E7</f>
-        <v>32000</v>
-      </c>
-      <c r="F14" s="7">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+        <v>28600</v>
+      </c>
+      <c r="F17" s="7">
+        <v>28600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="8">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="8">
         <f>E8</f>
-        <v>32000</v>
-      </c>
-      <c r="F15" s="8">
+        <v>28600</v>
+      </c>
+      <c r="F18" s="8">
         <f>F8</f>
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
+        <v>28600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A14:D14"/>
+  <mergeCells count="22">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A17:D17"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:D10"/>
@@ -828,11 +924,8 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="87" orientation="portrait" r:id="rId1"/>

--- a/1. DOKUMENTY BUDŻETOWE/Zmiana budżetowa_WPF/Zmiana budżetowa - polisa 2.xlsx
+++ b/1. DOKUMENTY BUDŻETOWE/Zmiana budżetowa_WPF/Zmiana budżetowa - polisa 2.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Urbact\1. DOKUMENTY BUDŻETOWE\Zmiana budżetowa_WPF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BIURO\Urbact\1. DOKUMENTY BUDŻETOWE\Zmiana budżetowa_WPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492107E0-96CC-4AB3-AE20-99D9CBE40225}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet!$A$1:$F$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet!$A$1:$F$19</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Zestawienie zmian wydatków</t>
   </si>
@@ -77,18 +78,35 @@
     <t xml:space="preserve">4439 Różne opłaty i składki </t>
   </si>
   <si>
-    <t>UZASADNIENIE
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>UZASADNIENIE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">
 Zmiana budżetowa wynika z aktualizacji budżetu projektu Tech Revolution 2.0 po przeanalizowaniu wydatków związanych z działaniami w projekcie</t>
-  </si>
-  <si>
-    <t>4219 koszty biurowe i administracyjne</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -158,6 +176,14 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -182,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -264,35 +290,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -324,6 +326,21 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -337,30 +354,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -642,11 +635,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F17" sqref="A5:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,14 +653,14 @@
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
       <c r="G2" s="1"/>
       <c r="H2" s="2"/>
     </row>
@@ -682,22 +675,22 @@
       <c r="H3" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
@@ -706,12 +699,12 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="7">
         <v>28600</v>
       </c>
@@ -720,12 +713,12 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="8">
         <v>28600</v>
       </c>
@@ -737,11 +730,11 @@
       <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="10">
         <v>28600</v>
       </c>
@@ -750,14 +743,14 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="11">
         <v>24310</v>
       </c>
@@ -766,14 +759,14 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="19"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="11">
         <v>4290</v>
       </c>
@@ -782,139 +775,117 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="19"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="11">
         <v>0</v>
       </c>
       <c r="F12" s="11">
-        <v>24000</v>
+        <v>23800</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="19"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="11">
-        <f t="shared" ref="E13" si="0">E19</f>
+        <f t="shared" ref="E13" si="0">E18</f>
         <v>0</v>
       </c>
       <c r="F13" s="11">
-        <v>4000</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="19"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="11">
         <v>0</v>
       </c>
       <c r="F14" s="11">
-        <v>497</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="11">
-        <f t="shared" ref="E15" si="1">E19</f>
+        <f t="shared" ref="E15" si="1">E18</f>
         <v>0</v>
       </c>
       <c r="F15" s="11">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="11">
-        <v>0</v>
-      </c>
-      <c r="F16" s="11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A16" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="7">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="7">
         <f>E7</f>
         <v>28600</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F16" s="7">
         <v>28600</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="8">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="8">
         <f>E8</f>
         <v>28600</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F17" s="8">
         <f>F8</f>
         <v>28600</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+    <row r="19" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A20:F20"/>
+  <mergeCells count="21">
     <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A16:D16"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:D10"/>
@@ -926,6 +897,13 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="87" orientation="portrait" r:id="rId1"/>
